--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Phan\Desktop\Bach Khoa Studies\HK242\MP - Information Systems\Multidisciplinary-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AEFF3-8649-4B3F-869F-849A1C51ABAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C187B-F172-4196-AA6B-D2B3DFB180F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-5955" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,34 +160,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,6 +205,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282605</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>140087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F4A05B-14D2-8D6B-C76E-07CF88D4686A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478280" y="1577340"/>
+          <a:ext cx="4763165" cy="7325747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>560812</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>138133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA8BB6F-019D-A787-CDAE-53009E75392C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6644640" y="1577340"/>
+          <a:ext cx="5315692" cy="6973273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>288827</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0186CDC8-7058-E37B-40C8-6D98C411BE0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12773705" y="1607345"/>
+          <a:ext cx="4991797" cy="4315427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>460302</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC9F2F9-2DF6-FA1B-D476-5D629A0A1DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18148527" y="1428750"/>
+          <a:ext cx="5163271" cy="4363059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,146 +690,146 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>4765</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>4453</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>12519</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>1606</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>1387</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>4911</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>2332</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>2244</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>6712</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2.27</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>2.41</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>1.71</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>6.67</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>7.74</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>4.55</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>4.78</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>3.18</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0.21</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0.2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>0.3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>0.31</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>0.46</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0.21</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>0.41</v>
       </c>
     </row>
@@ -660,5 +841,6 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Phan\Desktop\Bach Khoa Studies\HK242\MP - Information Systems\Multidisciplinary-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C187B-F172-4196-AA6B-D2B3DFB180F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BF450-6750-4A83-B5D6-EED2956C5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-5955" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <dimension ref="C3:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Phan\Desktop\Bach Khoa Studies\HK242\MP - Information Systems\Multidisciplinary-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BF450-6750-4A83-B5D6-EED2956C5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57702DCD-5D28-4D7D-B5B9-8C23FD01ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="156" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>PCA</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>RMSE of compression</t>
+  </si>
+  <si>
+    <t>y=[3,5,8,12,7,4,2,1]</t>
   </si>
 </sst>
 </file>
@@ -385,6 +388,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11742</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>86428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4321F9D-C9A6-12FE-B5E8-BECEF6EE182B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211286" y="9906000"/>
+          <a:ext cx="6134956" cy="5039428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>334445</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>55399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6362A81-B133-E8D9-39E6-5A0F56C84EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="9906000"/>
+          <a:ext cx="7668695" cy="6954220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268953</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>157047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A06822F-C2AF-D714-835D-F4C7DCFCEB47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3211286" y="15212786"/>
+          <a:ext cx="6392167" cy="4048690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -675,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L7"/>
+  <dimension ref="C3:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="56" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -833,6 +968,11 @@
         <v>0.41</v>
       </c>
     </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:F3"/>
